--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>497222.7619086864</v>
+        <v>494659.7415727817</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>280.9667343657076</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>157.4040920724944</v>
       </c>
       <c r="X2" t="n">
-        <v>113.4453092462842</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>11.61364434216134</v>
+        <v>141.0526494037118</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>153.5184271031864</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>252.5062532483136</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>199.6452357812556</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>70.79669549986323</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4682886668212</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>154.0087459030713</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
@@ -1184,16 +1184,16 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>150.4834223965015</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>282.6763020105409</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>214.1758590541617</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.79076481679308</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>102.1557845699829</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631855965</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>238.4715729346846</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238269</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833657</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>102.7111628144478</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892457</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,13 +2248,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189102</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>75.0888690599473</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,16 +2482,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>220.4545102853546</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>1.255571502165565</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465709</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>82.52140782073276</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>35.56815683447337</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3238,7 +3238,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>131.437227901961</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560518</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
-        <v>1.294096136280117</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3913,10 +3913,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>36.22494343870298</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4132,16 +4132,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>175.3253504652189</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4195,13 +4195,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1330.099343395678</v>
+        <v>335.0515687555866</v>
       </c>
       <c r="C2" t="n">
-        <v>1330.099343395678</v>
+        <v>335.0515687555866</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4343,37 +4343,37 @@
         <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926627</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2184.059060190807</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2184.059060190807</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.290404920692</v>
+        <v>1485.2564990566</v>
       </c>
       <c r="X2" t="n">
-        <v>1716.699183459799</v>
+        <v>1111.79074079552</v>
       </c>
       <c r="Y2" t="n">
-        <v>1716.699183459799</v>
+        <v>721.6514088197084</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370162</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>527.2645251530225</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>821.9680821844944</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1456.147065963533</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1843.432194560478</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.50262973664</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568937</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676483</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>483.7092993092127</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="C4" t="n">
-        <v>471.9783454282416</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>471.9783454282416</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,7 +4507,7 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
         <v>1533.86271359008</v>
@@ -4519,19 +4519,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387896</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>859.5709967387896</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>704.5018784527427</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y4" t="n">
-        <v>483.7092993092127</v>
+        <v>342.4631083446099</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1284.324637962024</v>
+        <v>1099.386652222402</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.324637962024</v>
+        <v>1099.386652222402</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674217</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2027.23262520795</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2027.23262520795</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>1674.463969937836</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>1674.463969937836</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1284.324637962024</v>
+        <v>1485.986492286524</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4641,25 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>483.0441129489462</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687205</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.77024428415</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>546.2888279392359</v>
+        <v>368.9218676324038</v>
       </c>
       <c r="C7" t="n">
-        <v>377.3526450113291</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>377.3526450113291</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.86271359008</v>
+        <v>1363.692725037735</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1140.71424423247</v>
       </c>
       <c r="U7" t="n">
-        <v>1021.765895288653</v>
+        <v>851.5959067363079</v>
       </c>
       <c r="V7" t="n">
-        <v>767.0814070827661</v>
+        <v>596.9114185304211</v>
       </c>
       <c r="W7" t="n">
-        <v>767.0814070827661</v>
+        <v>596.9114185304211</v>
       </c>
       <c r="X7" t="n">
-        <v>767.0814070827661</v>
+        <v>368.9218676324038</v>
       </c>
       <c r="Y7" t="n">
-        <v>546.2888279392359</v>
+        <v>368.9218676324038</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1677.574522601424</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="C8" t="n">
-        <v>1522.010132800342</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.744434193592</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953475</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>366.9702768057399</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
         <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>1492.247074486895</v>
       </c>
       <c r="X8" t="n">
-        <v>2064.174362665546</v>
+        <v>1118.781316225816</v>
       </c>
       <c r="Y8" t="n">
-        <v>2064.174362665546</v>
+        <v>1118.781316225816</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>932.4978103100999</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.0498276483066</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0498276483066</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>828.7238667522107</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0393785463239</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W10" t="n">
-        <v>574.0393785463239</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="X10" t="n">
-        <v>346.0498276483066</v>
+        <v>597.1475965504962</v>
       </c>
       <c r="Y10" t="n">
-        <v>346.0498276483066</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>119.2902967703778</v>
+        <v>251.5626541092265</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703778</v>
+        <v>746.8882603249853</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969299</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951537</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2435.053220128955</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2252.19838578386</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2252.19838578386</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1963.123159128057</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1708.43867092217</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,58 +5264,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745243</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1318.793114229131</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1870.702844468419</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2294.325993963487</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.8410298377032</v>
+        <v>513.8536007400728</v>
       </c>
       <c r="C16" t="n">
-        <v>782.8410298377032</v>
+        <v>344.9174178121659</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253675</v>
+        <v>344.9174178121659</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429743</v>
+        <v>197.0043242297728</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429743</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578543</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000524</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1736.580703808808</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1481.896215602921</v>
+        <v>1433.701365648821</v>
       </c>
       <c r="W16" t="n">
-        <v>1192.47904556596</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X16" t="n">
-        <v>964.4894946679429</v>
+        <v>916.2946447138427</v>
       </c>
       <c r="Y16" t="n">
-        <v>964.4894946679429</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5522,40 +5522,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452603</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718124</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.528408326419</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400696</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121627</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>194.800778399827</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>194.800778399827</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2276.168730525141</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2056.567265548082</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1767.492038892279</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V19" t="n">
-        <v>1767.492038892281</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1478.07486885532</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1250.085317957303</v>
+        <v>916.2946447138395</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703094</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.6442739835331</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>261.8464821474266</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>113.9333885650335</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1068.436853127063</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>847.6442739835331</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516142</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1754.779756989948</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1465.362586952987</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1237.37303605497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>632.7243904253751</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>633.9926444679666</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>486.0795508855734</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,25 +6777,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>214.9229991561138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
         <v>2516.421633107662</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171301</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>733.4550657171301</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6886,22 +6886,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1965.532750177311</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1965.532750177311</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2131.343372566517</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1842.268145910715</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1587.583657704828</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1298.166487667867</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1070.17693676985</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>849.3843576263199</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7163,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273902</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>924.8344286397182</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.9745311434712</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>701.0383482155643</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>550.9217088032285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.622995973711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7491,19 +7491,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>506.2737913123336</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>1103.652278938886</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2410.372231621975</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2410.372231621975</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1901.695539989114</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9096564684977</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
         <v>1859.536823237711</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536381</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
         <v>407.9027098310023</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1051.964939354869</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>105.1672460959155</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179985</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.0169020165191</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>60.50016306149507</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,7 +8538,7 @@
         <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
-        <v>186.5911984019039</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>60.50016306149524</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73.71630725497535</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>256.2857914321848</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,13 +22702,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>155.6331767564665</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345294945</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462227</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>54.58448189332442</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294833</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>47.71290145455956</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459467</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>78.31512318719679</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>150.6207863290899</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>31.68313303847339</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>147.3599015160468</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,25 +24835,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>62.89964020219848</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>113.047316183739</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25126,7 +25126,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25309,25 +25309,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>85.96822242532724</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
-        <v>145.1398665102891</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>30.15030327141871</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26020,16 +26020,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.506629716718351</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26083,13 +26083,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>965013.1322883724</v>
+        <v>965013.1322883725</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1035821.298219894</v>
+        <v>1035821.298219893</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631199</v>
+        <v>354580.09686312</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855347</v>
       </c>
       <c r="D2" t="n">
         <v>389994.8406855348</v>
@@ -26326,13 +26326,13 @@
         <v>383394.634852753</v>
       </c>
       <c r="G2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="H2" t="n">
         <v>383394.6348527531</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="I2" t="n">
-        <v>383394.6348527528</v>
       </c>
       <c r="J2" t="n">
         <v>383394.6348527529</v>
@@ -26341,19 +26341,19 @@
         <v>383394.6348527529</v>
       </c>
       <c r="L2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="M2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.6348527528</v>
+        <v>383394.634852753</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26372,22 +26372,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>5.148837678054155e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90558.97983407899</v>
+        <v>90558.97983407913</v>
       </c>
       <c r="C4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.368461719668</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719668</v>
@@ -26436,22 +26436,22 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
+        <v>7507.368461719667</v>
+      </c>
+      <c r="J4" t="n">
         <v>7507.368461719672</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>7507.36846171968</v>
+      </c>
+      <c r="L4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.368461719676</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719678</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719749</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-943668.4389867238</v>
+        <v>-943854.8323752625</v>
       </c>
       <c r="C6" t="n">
-        <v>163943.2046989457</v>
+        <v>163943.2046989456</v>
       </c>
       <c r="D6" t="n">
         <v>163943.2046989457</v>
       </c>
       <c r="E6" t="n">
-        <v>-232720.70505742</v>
+        <v>-232755.4429828556</v>
       </c>
       <c r="F6" t="n">
-        <v>274764.736567126</v>
+        <v>274729.9986416905</v>
       </c>
       <c r="G6" t="n">
-        <v>274764.7365671266</v>
+        <v>274729.9986416907</v>
       </c>
       <c r="H6" t="n">
-        <v>274764.7365671266</v>
+        <v>274729.9986416904</v>
       </c>
       <c r="I6" t="n">
-        <v>274764.736567126</v>
+        <v>274729.9986416906</v>
       </c>
       <c r="J6" t="n">
-        <v>107159.5587571435</v>
+        <v>107124.8208317079</v>
       </c>
       <c r="K6" t="n">
-        <v>274764.7365671261</v>
+        <v>274729.9986416904</v>
       </c>
       <c r="L6" t="n">
-        <v>274764.736567126</v>
+        <v>274729.9986416904</v>
       </c>
       <c r="M6" t="n">
-        <v>142157.4428381993</v>
+        <v>142122.7049127638</v>
       </c>
       <c r="N6" t="n">
-        <v>274764.736567126</v>
+        <v>274729.9986416905</v>
       </c>
       <c r="O6" t="n">
-        <v>274764.7365671261</v>
+        <v>274729.9986416905</v>
       </c>
       <c r="P6" t="n">
-        <v>274764.7365671261</v>
+        <v>274729.9986416905</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26969,13 +26969,13 @@
         <v>433.9106082241349</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27379,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.8368766449186</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>26.19417169491601</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>72.19122828585074</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>102.1767883723693</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>51.40001434720642</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>75.63726714670594</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>26.19417169491626</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>211.2641458679362</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>198.7575463209115</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3.550852110659719</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>4.408794297933071</v>
       </c>
     </row>
     <row r="11">
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.621818412198717e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28263,7 +28263,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>4.147674796210292e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.073772610967144e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.844450849205411e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28542,7 +28542,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>1.736439038534721e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>163.5723821283044</v>
+        <v>146.0225991093084</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,13 +32066,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659451</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521102</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
@@ -32084,25 +32084,25 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862125</v>
+        <v>732.4825987614911</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437246</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214701</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>364.3208035245817</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32160,31 +32160,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
         <v>0.1345549672467222</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963271</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>316.2462973459355</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>626.4629682828348</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,16 +33035,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>399.0581126127094</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33260,31 +33260,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>451.9270028924504</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,28 +33497,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>258.3858318060507</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>322.7581251332984</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34211,22 +34211,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>217.8799919951683</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,25 +34442,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>232.1537035940586</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,16 +34778,16 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>291.7547423394004</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000391</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>270.4976243473736</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977097</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>247.0876593049799</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>577.9642335061964</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>553.5225306839444</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>310.1796921850275</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>25.73094315394538</v>
+        <v>8.181160134949373</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367773</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902953</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243165</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641942</v>
+        <v>590.3485648394727</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992802</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071399</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>224.3390294385602</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789219</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164529</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>176.264523259914</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36370,7 +36370,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>483.8667238383904</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,16 +36683,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>265.0837051983791</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36835,7 +36835,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M29" t="n">
         <v>735.3001107902948</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>320.5852908091172</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,28 +37145,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>120.5443928316917</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>37.00975247789211</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>180.6240912112801</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>79.32561221529411</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38090,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>90.01966967204032</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
